--- a/Anatomie/data/quizData1.xlsx
+++ b/Anatomie/data/quizData1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Anatomie\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7D5210-6F96-4081-ABA4-E1EC882BC1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EA73D6-479D-47C7-B509-845511312E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{24E2671D-7CFF-4DA9-BE3C-6DCEADEF94F2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{24E2671D-7CFF-4DA9-BE3C-6DCEADEF94F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -808,8 +808,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF34EB4-9C3F-495F-A40C-2FE4330D40F6}">
   <dimension ref="A1:AM15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="48.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,6 +943,9 @@
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
       <c r="C2" s="1" t="b">
         <v>0</v>
       </c>
@@ -971,6 +975,9 @@
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
       <c r="C3" s="1" t="b">
         <v>0</v>
       </c>
@@ -1003,6 +1010,9 @@
       <c r="A4" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
       <c r="C4" s="1" t="b">
         <v>0</v>
       </c>
@@ -1059,6 +1069,9 @@
       <c r="A5" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
@@ -1070,6 +1083,9 @@
       <c r="A6" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
@@ -1087,6 +1103,9 @@
       <c r="A7" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
@@ -1107,6 +1126,9 @@
       <c r="A8" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
       <c r="C8" s="1" t="b">
         <v>0</v>
       </c>
@@ -1127,6 +1149,9 @@
       <c r="A9" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
       <c r="C9" s="1" t="b">
         <v>0</v>
       </c>
@@ -1168,6 +1193,9 @@
       <c r="A10" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
       <c r="C10" s="1" t="b">
         <v>0</v>
       </c>
@@ -1206,6 +1234,9 @@
       <c r="A11" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
       <c r="C11" s="1" t="b">
         <v>0</v>
       </c>
@@ -1253,6 +1284,9 @@
       <c r="A12" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
       <c r="C12" s="1" t="b">
         <v>0</v>
       </c>
@@ -1264,6 +1298,9 @@
       <c r="A13" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
       <c r="C13" s="1" t="b">
         <v>0</v>
       </c>
@@ -1299,6 +1336,9 @@
       <c r="A14" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
       <c r="C14" s="1" t="b">
         <v>0</v>
       </c>
@@ -1309,6 +1349,9 @@
     <row r="15" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>127</v>
+      </c>
+      <c r="B15" s="1">
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="b">
         <v>0</v>
